--- a/biology/Botanique/Lambia_antarctica/Lambia_antarctica.xlsx
+++ b/biology/Botanique/Lambia_antarctica/Lambia_antarctica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lambia
 Lambia antarctica, unique représentant du genre Lambia, est une espèce d'algues vertes de la famille des Bryopsidaceae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est marine selon l'AlgaeBase                                           (2 avril 2024)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est marine selon l'AlgaeBase                                           (2 avril 2024).
 </t>
         </is>
       </c>
@@ -543,13 +557,50 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon (genre) est Lambia Delépine, 1967[2].
-Le nom correct complet (avec auteur) du taxon espèce est Lambia antarctica (Skottsberg) Delépine, 1967[3].
-Étymologie
-Le genre Lambia a été nommé d'après le spécialiste en lichénologie Ivan Mackenzie Lamb (1911-1990) en 1967 lors de la description de ce genre et de son espèce holotype.
-L'étymologie de l'épithète spécifique antarctica est la suivante : adjectif latin, de ou appartenant à l'antarctique (Stearn 1973)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon (genre) est Lambia Delépine, 1967.
+Le nom correct complet (avec auteur) du taxon espèce est Lambia antarctica (Skottsberg) Delépine, 1967.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lambia_antarctica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lambia_antarctica</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Lambia a été nommé d'après le spécialiste en lichénologie Ivan Mackenzie Lamb (1911-1990) en 1967 lors de la description de ce genre et de son espèce holotype.
+L'étymologie de l'épithète spécifique antarctica est la suivante : adjectif latin, de ou appartenant à l'antarctique (Stearn 1973).
 </t>
         </is>
       </c>
